--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1281.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1281.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8432851683638157</v>
+        <v>1.138157486915588</v>
       </c>
       <c r="B1">
-        <v>1.538291450642595</v>
+        <v>2.227763891220093</v>
       </c>
       <c r="C1">
-        <v>5.304947408352702</v>
+        <v>10.84977531433105</v>
       </c>
       <c r="D1">
-        <v>3.708740650018445</v>
+        <v>2.31383228302002</v>
       </c>
       <c r="E1">
-        <v>1.497256614692709</v>
+        <v>1.277617573738098</v>
       </c>
     </row>
   </sheetData>
